--- a/PCA - Value-at-Risk.xlsx
+++ b/PCA - Value-at-Risk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbriones/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ADMU\M AMF\SEM 2\271.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA490C50-D0E7-064F-A700-0EB352B45C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8CE876-7C7B-4181-9B4C-3AA5ED27A1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="17960" xr2:uid="{BB53B0CD-5592-4E39-BBDE-5EAB7EC15824}"/>
+    <workbookView xWindow="4125" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{BB53B0CD-5592-4E39-BBDE-5EAB7EC15824}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,10 +113,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,12 +441,15 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +475,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -471,7 +487,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -485,7 +501,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -505,7 +521,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -530,7 +546,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -555,7 +571,7 @@
         <v>-81.774082222497512</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -580,7 +596,7 @@
         <v>-408.87041111248755</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -604,47 +620,58 @@
         <f t="shared" si="3"/>
         <v>4.0887041111248752E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="4">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="5">
+        <v>0.92013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.216</v>
-      </c>
-      <c r="C10">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="D10">
-        <v>0.372</v>
-      </c>
-      <c r="E10">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="F10">
-        <f>0.404</f>
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.31562010000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-0.3299318</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-0.33092759999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-0.32935330000000002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-0.32493850000000002</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.39807999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <f>SUMPRODUCT(B8:F8,B10:F10)</f>
-        <v>1.1624908318399584E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.1392245512541043E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <f>SQRT(20)*B11^2*17.55^2*NORMSINV(0.95)</f>
-        <v>3.0617911903030788E-3</v>
+        <f>B11^2*H8^2*NORMSINV(0.95)</f>
+        <v>1.8326569117386671E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PCA - Value-at-Risk.xlsx
+++ b/PCA - Value-at-Risk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\ADMU\M AMF\SEM 2\271.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8CE876-7C7B-4181-9B4C-3AA5ED27A1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE8964D-EAB8-403E-8006-17A8D3B7F604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{BB53B0CD-5592-4E39-BBDE-5EAB7EC15824}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB53B0CD-5592-4E39-BBDE-5EAB7EC15824}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Bonds</t>
   </si>
@@ -72,13 +94,32 @@
   </si>
   <si>
     <t>BiTi ($)</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>a_i2</t>
+  </si>
+  <si>
+    <t>a_i3</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.00000000_);_(&quot;$&quot;* \(#,##0.00000000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +132,13 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,22 +158,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A99A5FF-6CEA-4BCB-85D6-88F54F0CF564}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -620,54 +667,131 @@
         <f t="shared" si="3"/>
         <v>4.0887041111248752E-2</v>
       </c>
-      <c r="H8" s="4">
-        <v>2.93</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="5">
-        <v>0.92013</v>
+      <c r="I9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>-0.31562010000000001</v>
+      <c r="B10" s="3">
+        <v>-0.3195963</v>
       </c>
       <c r="C10" s="3">
-        <v>-0.3299318</v>
+        <v>-0.33268530000000002</v>
       </c>
       <c r="D10" s="3">
-        <v>-0.33092759999999999</v>
+        <v>-0.33889849999999999</v>
       </c>
       <c r="E10" s="3">
-        <v>-0.32935330000000002</v>
+        <v>-0.34253509999999998</v>
       </c>
       <c r="F10" s="3">
-        <v>-0.32493850000000002</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.39807999999999999</v>
+        <v>-0.33920400000000001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2.8721999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <f>SUMPRODUCT(B8:F8,B10:F10)</f>
-        <v>1.1392245512541043E-3</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-0.2277486</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-4.8525199999999998E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.2278400000000003E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.1014145</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.14821239999999999</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.0503</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-0.36612274</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-0.39036187999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-0.26995828999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-0.17182674000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-7.0772459999999995E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.53985000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" cm="1">
+        <f t="array" ref="B14:B16">MMULT(B10:F12,TRANSPOSE(B8:F8))</f>
+        <v>7.9439629813898849E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>5.9065120907563773E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1.1387249560319126E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <f>B11^2*H8^2*NORMSINV(0.95)</f>
-        <v>1.8326569117386671E-5</v>
+      <c r="B18" s="4">
+        <f>B14^2*I10^2*NORMSINV(0.95)</f>
+        <v>8.5631003975727246E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B15^2*I11^2*NORMSINV(0.95)+B18</f>
+        <v>7.1864918316408351E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B16^2*I12^2*NORMSINV(0.95)+B19</f>
+        <v>1.3402493831437282E-4</v>
       </c>
     </row>
   </sheetData>
